--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.3669</v>
+        <v>-12.0879</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.9261</v>
+        <v>-21.92459999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.181299999999996</v>
+        <v>-7.257799999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.314400000000002</v>
+        <v>-7.259900000000003</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.86700000000001</v>
+        <v>-21.90619999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.10179999999999</v>
+        <v>-19.96359999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.00489999999999</v>
+        <v>-20.34879999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.440899999999996</v>
+        <v>-7.521699999999998</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.96859999999999</v>
+        <v>-22.01259999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.9493</v>
+        <v>-12.91119999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.643199999999991</v>
+        <v>-8.658799999999996</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.19759999999997</v>
+        <v>-21.03569999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.144</v>
+        <v>-12.8204</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.85579999999999</v>
+        <v>-21.05289999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.822</v>
+        <v>-12.8017</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.5061</v>
+        <v>-12.63310000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.15809999999999</v>
+        <v>-11.37889999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.358500000000001</v>
+        <v>-8.142300000000002</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9372</v>
+        <v>-11.8758</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0841</v>
+        <v>-11.1242</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.26710000000001</v>
+        <v>-22.30500000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.080799999999997</v>
+        <v>-6.0726</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.7129</v>
+        <v>-13.57539999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.2027</v>
+        <v>-12.1467</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.0087</v>
+        <v>-21.91980000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.7709</v>
+        <v>-12.69369999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.786399999999999</v>
+        <v>-8.659799999999997</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.3328</v>
+        <v>-22.34729999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.880400000000001</v>
+        <v>-7.892899999999996</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-8.077199999999999</v>
+        <v>-8.123699999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5887</v>
+        <v>-21.58000000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.307099999999995</v>
+        <v>-7.340399999999996</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.55160000000001</v>
+        <v>-12.87190000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.4904</v>
+        <v>-20.46250000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9784</v>
+        <v>-21.94749999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.625799999999999</v>
+        <v>-7.612899999999997</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.3823</v>
+        <v>-10.3603</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.3134</v>
+        <v>-12.2328</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.41610000000002</v>
+        <v>-21.36370000000003</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.61979999999999</v>
+        <v>-10.7008</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.67469999999999</v>
+        <v>-20.972</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.570600000000002</v>
+        <v>-8.388200000000005</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.148200000000005</v>
+        <v>-8.173100000000005</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.821999999999998</v>
+        <v>-7.858699999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
